--- a/biology/Botanique/Giardino_Bardini/Giardino_Bardini.xlsx
+++ b/biology/Botanique/Giardino_Bardini/Giardino_Bardini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Giardino Bardini est un jardin italien de la Renaissance à Florence, en Italie.
@@ -512,7 +524,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin s'étend sur environ 4 hectares. Le jardin abrite de nombreuses statues et permet des vues panoramiques sur la ville. La faune dans le jardin comprend des pigeons bisets, des merles et des pigeons ramiers.
 </t>
@@ -543,7 +557,9 @@
           <t>Visite</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'accès se fait via Via de' Bardi, juste au-dessus de la route du Musée Bardini dans le quartier de l'Oltrarno, bien que la sortie des jardins se fasse sur la Costa di San Giorgio, à laquelle le Forte Belvedere et le Jardin di Boboli sont reliés.
 </t>
